--- a/biology/Zoologie/Arthroleptis_xenochirus/Arthroleptis_xenochirus.xlsx
+++ b/biology/Zoologie/Arthroleptis_xenochirus/Arthroleptis_xenochirus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Arthroleptis xenochirus est une espèce d'amphibiens de la famille des Arthroleptidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Arthroleptis xenochirus est une espèce d'amphibiens de la famille des Arthroleptidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce se rencontre de 1 600 à 2 280 m d'altitude dans le nord de l'Angola, dans le Nord du Malawi et dans le Sud du Congo-Kinshasa[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce se rencontre de 1 600 à 2 280 m d'altitude dans le nord de l'Angola, dans le Nord du Malawi et dans le Sud du Congo-Kinshasa.
 Sa présence est incertaine en Zambie et en Tanzanie.
 </t>
         </is>
@@ -543,7 +557,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Boulenger, 1905 : A list of the Batrachians and Reptiles collected by Dr. WJ Ansorge in Angola, with Descriptions of new Species. Annals and Magazine of Natural History, ser. 7, vol. 16, no 92, p. 105-115 (texte intégral).</t>
         </is>
